--- a/linux-kernel/interrupt_dirver.xlsx
+++ b/linux-kernel/interrupt_dirver.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="800" windowWidth="29680" windowHeight="18480" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interrupt" sheetId="5" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>中断CPU-硬件-中断入口图解</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -765,12 +760,48 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>tasklet:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软中断TASKLET_SOFTIRQ，对应对调用tasklet_schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软中断HI_SOFTIRQ，对应对调用tasklet_hi_schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软中断触发后（一般就是中断返回前tasklet_schedule，所以中断返回后，进行软中断检查和调用do_softirq）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以同一时间里，只有一个给定的tasklet会被执行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">调用tasklet_schedule（tasklet_hi_schedule）进行调度tasklet </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为指向需要调度的tasklet，然后放入每个CPU队列中，唤起对应软中断TASKLET_SOFTIRQ（HI_SOFTIRQ）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ksoftirqd/n是当软中断执行过程中重新触发的软中断时，会唤起辅助进程来处理这些负载。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用软中断处理程序tasklet_action(tasklet_hi_action),进行遍历tasklet_vec(tasklet_hi_vec)进行调用，其中根据运行状态进行判断看是否已经被其他CPU调度（所以队列里应该存放的是指针？指向同一个tasklet？），可以避免同一个tasklet在多处理上并发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +826,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -830,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +876,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1173,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1182,7 +1223,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1232,7 +1273,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1336,7 +1377,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1386,7 +1427,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2767,7 +2808,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2832,7 +2873,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3031,7 +3072,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="283411"/>
+    <xdr:ext cx="992579" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
@@ -3039,8 +3080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="3276600"/>
-          <a:ext cx="1172116" cy="283411"/>
+          <a:off x="2860675" y="3076575"/>
+          <a:ext cx="992579" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3074,7 +3115,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>执行下半部请求</a:t>
           </a:r>
         </a:p>
@@ -3137,7 +3178,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1454244" cy="474489"/>
+    <xdr:ext cx="1223412" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="文本框 16"/>
@@ -3145,8 +3186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="1155700"/>
-          <a:ext cx="1454244" cy="474489"/>
+          <a:off x="269875" y="1089025"/>
+          <a:ext cx="1223412" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3180,14 +3221,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>中断上下文进入</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>上一个上下文被打断</a:t>
           </a:r>
         </a:p>
@@ -3199,10 +3240,10 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="474489"/>
+    <xdr:ext cx="992579" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="文本框 17"/>
@@ -3210,8 +3251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="317500" y="3124200"/>
-          <a:ext cx="1172116" cy="474489"/>
+          <a:off x="320675" y="3019425"/>
+          <a:ext cx="992579" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3245,18 +3286,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>中断上下文返回</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
             <a:t>CPU</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>重新调度</a:t>
           </a:r>
         </a:p>
@@ -3271,7 +3312,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2413609" cy="474489"/>
+    <xdr:ext cx="2031325" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="文本框 20"/>
@@ -3279,8 +3320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3454400" y="2032000"/>
-          <a:ext cx="2413609" cy="474489"/>
+          <a:off x="3505200" y="1908175"/>
+          <a:ext cx="2031325" cy="392415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3314,22 +3355,22 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t> 硬件请求以及必要数据拷贝到内核</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t> 答复硬件</a:t>
           </a:r>
         </a:p>
@@ -3411,11 +3452,11 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>65506</xdr:rowOff>
+      <xdr:rowOff>54512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>105316</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128979</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -3429,13 +3470,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3473450" y="3418306"/>
-          <a:ext cx="518066" cy="1356894"/>
+          <a:off x="3524250" y="3197762"/>
+          <a:ext cx="329004" cy="1282163"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -44126"/>
-            <a:gd name="adj2" fmla="val 55222"/>
+            <a:gd name="adj1" fmla="val -69482"/>
+            <a:gd name="adj2" fmla="val 54726"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="3175">
@@ -3516,9 +3557,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1031051" cy="283411"/>
+    <xdr:ext cx="877163" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="文本框 18"/>
@@ -3526,8 +3567,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="279400" y="4457700"/>
-          <a:ext cx="1031051" cy="283411"/>
+          <a:off x="282575" y="4229100"/>
+          <a:ext cx="877163" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3561,7 +3602,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
             <a:t>下半部被调度</a:t>
           </a:r>
         </a:p>
@@ -3569,6 +3610,2078 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="10934700"/>
+          <a:ext cx="752475" cy="1123949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>39689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="11325226"/>
+          <a:ext cx="200025" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4552950" y="11896726"/>
+          <a:ext cx="228600" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>39689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="11896726"/>
+          <a:ext cx="200025" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="组合 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3124200" y="10963275"/>
+          <a:ext cx="4819650" cy="1095376"/>
+          <a:chOff x="3124200" y="10963275"/>
+          <a:chExt cx="4819650" cy="1095376"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="48" name="组合 47"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3124200" y="10963275"/>
+            <a:ext cx="3695700" cy="523876"/>
+            <a:chOff x="3124200" y="10963275"/>
+            <a:chExt cx="3695700" cy="523876"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="矩形 22"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3648075" y="11182351"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="矩形 24"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4791075" y="11172826"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="矩形 25"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5905500" y="11172826"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="直接箭头连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="23" idx="3"/>
+              <a:endCxn id="25" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4562475" y="11325226"/>
+              <a:ext cx="228600" cy="9525"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="文本框 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3124200" y="10963275"/>
+              <a:ext cx="819455" cy="207749"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>tasklet_vec</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="组合 48"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3171825" y="11534775"/>
+            <a:ext cx="4772025" cy="523876"/>
+            <a:chOff x="3171825" y="11534775"/>
+            <a:chExt cx="4772025" cy="523876"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="矩形 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3638550" y="11753851"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="矩形 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4781550" y="11744326"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="矩形 34"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5895975" y="11744326"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="文本框 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3171825" y="11534775"/>
+              <a:ext cx="992579" cy="207749"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>tasklet_hi_vec</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="矩形 43"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7029450" y="11753851"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="11896726"/>
+          <a:ext cx="219075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="12392025"/>
+          <a:ext cx="752475" cy="1123949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="组合 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3124200" y="12420600"/>
+          <a:ext cx="4829175" cy="1095376"/>
+          <a:chOff x="3124200" y="12420600"/>
+          <a:chExt cx="4829175" cy="1095376"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="51" name="组合 50"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3124200" y="12420600"/>
+            <a:ext cx="3695700" cy="523876"/>
+            <a:chOff x="3124200" y="10963275"/>
+            <a:chExt cx="3695700" cy="523876"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="矩形 51"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3648075" y="11182351"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="矩形 52"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4791075" y="11172826"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="矩形 53"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5905500" y="11172826"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="55" name="直接箭头连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="52" idx="3"/>
+              <a:endCxn id="53" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="4562475" y="11325226"/>
+              <a:ext cx="228600" cy="9525"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="文本框 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3124200" y="10963275"/>
+              <a:ext cx="819455" cy="207749"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>tasklet_vec</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="57" name="组合 56"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3171825" y="12639676"/>
+            <a:ext cx="4781550" cy="876300"/>
+            <a:chOff x="3171825" y="11182351"/>
+            <a:chExt cx="4781550" cy="876300"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="矩形 57"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3638550" y="11753851"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="矩形 58"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4781550" y="11744326"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="矩形 59"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5895975" y="11744326"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="文本框 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3171825" y="11534775"/>
+              <a:ext cx="992579" cy="207749"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>tasklet_hi_vec</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="矩形 61"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7038975" y="11182351"/>
+              <a:ext cx="914400" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>tasklet_</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>struct</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>68264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="12782551"/>
+          <a:ext cx="200025" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4552950" y="13354051"/>
+          <a:ext cx="228600" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>68264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="13354051"/>
+          <a:ext cx="200025" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="12782551"/>
+          <a:ext cx="219075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239124" y="12734924"/>
+          <a:ext cx="1647825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ksoftirqd/1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>辅助进程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矩形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="11239500"/>
+          <a:ext cx="1647825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ksoftirqd/0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>辅助进程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3893,94 +6006,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G56"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="G39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5">
       <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
@@ -3994,111 +6107,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="AH66" sqref="AH66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="2.83203125" style="1"/>
+    <col min="1" max="16384" width="2.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="22:22">
       <c r="V18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="22:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="22:22">
       <c r="V33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8">
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8">
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8">
       <c r="G57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:8">
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:8">
       <c r="G61" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:8">
       <c r="H62" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:8">
       <c r="H63" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:9">
       <c r="H65" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:9">
       <c r="H66" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:9">
       <c r="H67" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:9">
       <c r="I68" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:9">
       <c r="I69" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:9">
       <c r="I70" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:9">
       <c r="H72" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:9">
       <c r="H74" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9">
+      <c r="G77" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/linux-kernel/interrupt_dirver.xlsx
+++ b/linux-kernel/interrupt_dirver.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="34260" windowHeight="18020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interrupt" sheetId="5" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>中断CPU-硬件-中断入口图解</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,10 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不是进程上下文，不具备后备进程，所以不能调度，不能睡眠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中断栈每个CPU一个，一般为1页（以前是共享所中断进程的内核栈）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -796,12 +797,688 @@
     <t>调用软中断处理程序tasklet_action(tasklet_hi_action),进行遍历tasklet_vec(tasklet_hi_vec)进行调用，其中根据运行状态进行判断看是否已经被其他CPU调度（所以队列里应该存放的是指针？指向同一个tasklet？），可以避免同一个tasklet在多处理上并发。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>不是进程上下文(没有task_struct)，不具备后备进程，所以不能调度，不能睡眠</t>
+    <rPh sb="8" eb="9">
+      <t>mei you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasklet是基于软中断实现的</t>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ruan zhogn duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作队列</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo dui lie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推后执行的任务可以创建自己的工作对象，然后抛送到工作队列，对应的CPU工作线程被唤醒后就会执行，然后从队列中移除工作对象</t>
+    <rPh sb="0" eb="1">
+      <t>tui hou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gon zuo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dui xiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ran hou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pao wu x</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>song</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xian cheng</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>huan xing</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>jiu hui</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ran hou</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yi chu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>dui xiang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作队列是具有进程属性task_struct，执行是在进程上下文，可睡眠阻塞等</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu xing</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jin chegn</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shagn xia wen</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ke shui mian</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zu se</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作线程执行流程：</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian chegn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liu chegn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把自己状态设置为休眠</t>
+    <rPh sb="0" eb="1">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu mian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(cwq-&gt;worklist为空)</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishiwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>while(cwq-&gt;worklist不为空)</t>
+    <rPh sb="19" eb="20">
+      <t>bu wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环调用</t>
+    <rPh sb="0" eb="1">
+      <t>xun huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除</t>
+    <rPh sb="0" eb="1">
+      <t>yi chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作函数在内核线程中执行，没有用户空间内存映射，不能访问用户空间（只有系统调用才能访问用户空间，这是内核代表用户执行的例子）</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>han shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ying she</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhi you</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhe shi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>de</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>li zi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作结构的创建和执行</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECLEAR_WORK静态创建</t>
+    <rPh sb="12" eb="13">
+      <t>jing tai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chuang jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INIT_WORK动态创建</t>
+    <rPh sb="9" eb="10">
+      <t>dong tai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuang jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_WORK对工作进行调度</t>
+    <rPh sb="13" eb="14">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_workque</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新的工作队列&amp;在指定工作队列中执行工作：</t>
+    <rPh sb="0" eb="1">
+      <t>chuagn jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gong zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue_work(workqueue_struct*, work_struct*)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下半部之间加锁</t>
+    <rPh sb="0" eb="1">
+      <t>xia ban bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia suo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止下半部：</t>
+    <rPh sb="0" eb="1">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia ban bu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_bh_enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_bh_disable:禁止本地处理器软中断（那么tasklet也就被禁止了）</t>
+    <rPh sb="17" eb="18">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben di</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chu li qi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ruan zhogn duan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>na me</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>le</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当工作队列中的工作与下半部有共同数据访问时：</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xia ban bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gong tong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fang wen</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要上锁 并且 禁止下半部</t>
+    <rPh sb="0" eb="1">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bing qie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xia ban bu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软中断与中断区别：软中断执行时，中断线不被屏蔽，即可以被中断抢占（所以感觉区别就是中断线是否被屏蔽）</t>
+    <rPh sb="0" eb="1">
+      <t>ruan zhogn duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu bie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ruan zhogn duan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ping bi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gan jue</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qu bie</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>jiu shi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhong duan xian</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ping bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,7 +1850,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1223,7 +1900,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1273,7 +1950,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1377,7 +2054,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1427,7 +2104,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2808,7 +3485,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2873,7 +3550,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3614,13 +4291,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3688,13 +4365,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>39689</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3739,13 +4416,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3790,13 +4467,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>39689</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3841,13 +4518,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3857,8 +4534,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124200" y="10963275"/>
-          <a:ext cx="4819650" cy="1095376"/>
+          <a:off x="3105150" y="11979275"/>
+          <a:ext cx="4789714" cy="1186090"/>
           <a:chOff x="3124200" y="10963275"/>
           <a:chExt cx="4819650" cy="1095376"/>
         </a:xfrm>
@@ -4522,13 +5199,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4573,13 +5250,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4647,14 +5324,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>151493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>103869</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4663,8 +5340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124200" y="12420600"/>
-          <a:ext cx="4829175" cy="1095376"/>
+          <a:off x="3105150" y="13568136"/>
+          <a:ext cx="4799239" cy="1186090"/>
           <a:chOff x="3124200" y="12420600"/>
           <a:chExt cx="4829175" cy="1095376"/>
         </a:xfrm>
@@ -5327,15 +6004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>9853</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>68264</xdr:rowOff>
+      <xdr:colOff>208637</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5347,8 +6024,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="12782551"/>
-          <a:ext cx="200025" cy="1588"/>
+          <a:off x="5670424" y="13805848"/>
+          <a:ext cx="198784" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5378,15 +6055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>170758</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>82748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>180226</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>93062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5398,8 +6075,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4552950" y="13354051"/>
-          <a:ext cx="228600" cy="9525"/>
+          <a:off x="4525044" y="14424677"/>
+          <a:ext cx="227182" cy="10314"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5429,15 +6106,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>387</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>82748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>68264</xdr:rowOff>
+      <xdr:colOff>199172</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>82748</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5449,8 +6126,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5695950" y="13354051"/>
-          <a:ext cx="200025" cy="1588"/>
+          <a:off x="5660958" y="14424677"/>
+          <a:ext cx="198785" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5480,15 +6157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>28797</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>91091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5500,8 +6177,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6819900" y="12782551"/>
-          <a:ext cx="219075" cy="9525"/>
+          <a:off x="6777940" y="13805848"/>
+          <a:ext cx="217717" cy="10314"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5532,13 +6209,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5609,13 +6286,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5680,6 +6357,3234 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>135163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2177143" y="17272000"/>
+          <a:ext cx="748392" cy="1214663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>135163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2177143" y="18814143"/>
+          <a:ext cx="748392" cy="1214663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPU0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>43541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="210" name="组 209"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3652158" y="17623970"/>
+          <a:ext cx="4838699" cy="4265387"/>
+          <a:chOff x="3815444" y="18939326"/>
+          <a:chExt cx="4838699" cy="4265388"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="174" name="组 173"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3815444" y="18939326"/>
+            <a:ext cx="4838699" cy="4265388"/>
+            <a:chOff x="3833587" y="17433469"/>
+            <a:chExt cx="4838699" cy="4265388"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="矩形 95"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3853545" y="17850756"/>
+              <a:ext cx="1126672" cy="564242"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>工作线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>evnet/0</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="121" name="组 120"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5326744" y="17433469"/>
+              <a:ext cx="3345542" cy="4265388"/>
+              <a:chOff x="3548744" y="17324612"/>
+              <a:chExt cx="3345542" cy="4265388"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="42" name="组 41"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3548744" y="17324612"/>
+                <a:ext cx="3345542" cy="4265388"/>
+                <a:chOff x="3563258" y="17297399"/>
+                <a:chExt cx="3345542" cy="4265388"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="22" name="曲线连接符 21"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="70" idx="1"/>
+                  <a:endCxn id="71" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000">
+                  <a:off x="3574143" y="19467286"/>
+                  <a:ext cx="52614" cy="1545772"/>
+                </a:xfrm>
+                <a:prstGeom prst="curvedConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 534485"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="90" name="曲线连接符 89"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="71" idx="1"/>
+                  <a:endCxn id="73" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000">
+                  <a:off x="3563259" y="17896114"/>
+                  <a:ext cx="10885" cy="1571172"/>
+                </a:xfrm>
+                <a:prstGeom prst="curvedConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 2200138"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="40" name="组 39"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3563258" y="17297399"/>
+                  <a:ext cx="3345542" cy="4265388"/>
+                  <a:chOff x="3563258" y="17297399"/>
+                  <a:chExt cx="3345542" cy="4265388"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="39" name="组 38"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="3563258" y="17297399"/>
+                    <a:ext cx="3345542" cy="2774041"/>
+                    <a:chOff x="3563258" y="17297399"/>
+                    <a:chExt cx="3345542" cy="2774041"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="71" name="矩形 70"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3574143" y="18868571"/>
+                      <a:ext cx="1832428" cy="1197430"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>cpu_workque_struct</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="73" name="矩形 72"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3563258" y="17297399"/>
+                      <a:ext cx="1832428" cy="1197430"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>cpu_workque_struct</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="74" name="矩形 73"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3626758" y="17551399"/>
+                      <a:ext cx="1026885" cy="228601"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>worklist</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="75" name="矩形 74"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3634015" y="19164299"/>
+                      <a:ext cx="1026885" cy="228601"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>worklist</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="4" name="组 3"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="5575302" y="17330056"/>
+                      <a:ext cx="1110341" cy="976086"/>
+                      <a:chOff x="5602516" y="17103271"/>
+                      <a:chExt cx="1110341" cy="976086"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="76" name="矩形 75"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5602516" y="17103271"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="81" name="矩形 80"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5754916" y="17255671"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="82" name="矩形 81"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5907316" y="17408071"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-func</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-data</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="7" name="组 6"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="5646059" y="18942954"/>
+                      <a:ext cx="1262741" cy="1128486"/>
+                      <a:chOff x="5646059" y="18897599"/>
+                      <a:chExt cx="1262741" cy="1128486"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="83" name="组 82"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="5646059" y="18897599"/>
+                        <a:ext cx="1110341" cy="976086"/>
+                        <a:chOff x="5602516" y="17103271"/>
+                        <a:chExt cx="1110341" cy="976086"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="84" name="矩形 83"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5602516" y="17103271"/>
+                          <a:ext cx="805541" cy="671286"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:sysClr val="window" lastClr="FFFFFF"/>
+                        </a:solidFill>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>workstruct</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="85" name="矩形 84"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5754916" y="17255671"/>
+                          <a:ext cx="805541" cy="671286"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:sysClr val="window" lastClr="FFFFFF"/>
+                        </a:solidFill>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>workstruct</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="86" name="矩形 85"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5907316" y="17408071"/>
+                          <a:ext cx="805541" cy="671286"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:sysClr val="window" lastClr="FFFFFF"/>
+                        </a:solidFill>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>workstruct</a:t>
+                          </a:r>
+                        </a:p>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>-func</a:t>
+                          </a:r>
+                        </a:p>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>-data</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="87" name="矩形 86"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="6103259" y="19354799"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-func</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-data</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+              </xdr:grpSp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="组 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="3565071" y="20392571"/>
+                    <a:ext cx="2539999" cy="1170216"/>
+                    <a:chOff x="3565071" y="20392571"/>
+                    <a:chExt cx="2539999" cy="1170216"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="67" name="矩形 66"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3565071" y="20619359"/>
+                      <a:ext cx="2539999" cy="943428"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>workque_struct</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="70" name="矩形 69"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3626757" y="20880616"/>
+                      <a:ext cx="2251530" cy="264884"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>cpu_wq[NR_CPUS] : cpu_workque_struct</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="91" name="文本框 18"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3565071" y="20392571"/>
+                      <a:ext cx="1061357" cy="224954"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                      <a:noAutofit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+                        <a:t>缺省</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                        <a:t>event</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+                        <a:t>类型工作队列</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="117" name="直接箭头连接符 17"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="74" idx="3"/>
+                <a:endCxn id="76" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="4639129" y="17692912"/>
+                <a:ext cx="921659" cy="1"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="119" name="直接箭头连接符 17"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="75" idx="3"/>
+                <a:endCxn id="84" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="4646386" y="19305810"/>
+                <a:ext cx="985159" cy="3"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="矩形 148"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3833587" y="19481801"/>
+              <a:ext cx="1173842" cy="566056"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>工作线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>evnet/1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="150" name="直接箭头连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="161" idx="1"/>
+              <a:endCxn id="96" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="4980217" y="18132877"/>
+              <a:ext cx="419098" cy="4536"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="162" name="矩形 161"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5397501" y="19645083"/>
+              <a:ext cx="1026885" cy="228601"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>thread</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="170" name="直接箭头连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="162" idx="1"/>
+              <a:endCxn id="149" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5007429" y="19759384"/>
+              <a:ext cx="390072" cy="5445"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="161" name="矩形 160"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5381172" y="19528969"/>
+            <a:ext cx="1026885" cy="228601"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>thread</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>175987</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>5441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>7257</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>107043</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="212" name="组 211"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8884558" y="17585870"/>
+          <a:ext cx="4838699" cy="4265387"/>
+          <a:chOff x="3815444" y="18939326"/>
+          <a:chExt cx="4838699" cy="4265388"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="213" name="组 212"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3815444" y="18939326"/>
+            <a:ext cx="4838699" cy="4265388"/>
+            <a:chOff x="3833587" y="17433469"/>
+            <a:chExt cx="4838699" cy="4265388"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="215" name="矩形 214"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3853545" y="17850756"/>
+              <a:ext cx="1126672" cy="564242"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>工作线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>X/0</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="216" name="组 215"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5326744" y="17433469"/>
+              <a:ext cx="3345542" cy="4265388"/>
+              <a:chOff x="3548744" y="17324612"/>
+              <a:chExt cx="3345542" cy="4265388"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="221" name="组 220"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3548744" y="17324612"/>
+                <a:ext cx="3345542" cy="4265388"/>
+                <a:chOff x="3563258" y="17297399"/>
+                <a:chExt cx="3345542" cy="4265388"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="224" name="曲线连接符 223"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="230" idx="1"/>
+                  <a:endCxn id="232" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000">
+                  <a:off x="3574143" y="19467286"/>
+                  <a:ext cx="52614" cy="1545772"/>
+                </a:xfrm>
+                <a:prstGeom prst="curvedConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 534485"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="225" name="曲线连接符 224"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="232" idx="1"/>
+                  <a:endCxn id="233" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000">
+                  <a:off x="3563259" y="17896114"/>
+                  <a:ext cx="10885" cy="1571172"/>
+                </a:xfrm>
+                <a:prstGeom prst="curvedConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 2200138"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:prstDash val="dash"/>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="226" name="组 225"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3563258" y="17297399"/>
+                  <a:ext cx="3345542" cy="4265388"/>
+                  <a:chOff x="3563258" y="17297399"/>
+                  <a:chExt cx="3345542" cy="4265388"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="227" name="组 226"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="3563258" y="17297399"/>
+                    <a:ext cx="3345542" cy="2774041"/>
+                    <a:chOff x="3563258" y="17297399"/>
+                    <a:chExt cx="3345542" cy="2774041"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="232" name="矩形 231"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3574143" y="18868571"/>
+                      <a:ext cx="1832428" cy="1197430"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>cpu_workque_struct</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="233" name="矩形 232"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3563258" y="17297399"/>
+                      <a:ext cx="1832428" cy="1197430"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>cpu_workque_struct</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="234" name="矩形 233"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3626758" y="17551399"/>
+                      <a:ext cx="1026885" cy="228601"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>worklist</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="235" name="矩形 234"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3634015" y="19164299"/>
+                      <a:ext cx="1026885" cy="228601"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>worklist</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="236" name="组 235"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="5575302" y="17330056"/>
+                      <a:ext cx="1110341" cy="976086"/>
+                      <a:chOff x="5602516" y="17103271"/>
+                      <a:chExt cx="1110341" cy="976086"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="243" name="矩形 242"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5602516" y="17103271"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="244" name="矩形 243"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5754916" y="17255671"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="245" name="矩形 244"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5907316" y="17408071"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-func</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-data</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="237" name="组 236"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="5646059" y="18942954"/>
+                      <a:ext cx="1262741" cy="1128486"/>
+                      <a:chOff x="5646059" y="18897599"/>
+                      <a:chExt cx="1262741" cy="1128486"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:grpSp>
+                    <xdr:nvGrpSpPr>
+                      <xdr:cNvPr id="238" name="组 237"/>
+                      <xdr:cNvGrpSpPr/>
+                    </xdr:nvGrpSpPr>
+                    <xdr:grpSpPr>
+                      <a:xfrm>
+                        <a:off x="5646059" y="18897599"/>
+                        <a:ext cx="1110341" cy="976086"/>
+                        <a:chOff x="5602516" y="17103271"/>
+                        <a:chExt cx="1110341" cy="976086"/>
+                      </a:xfrm>
+                    </xdr:grpSpPr>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="240" name="矩形 239"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5602516" y="17103271"/>
+                          <a:ext cx="805541" cy="671286"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:sysClr val="window" lastClr="FFFFFF"/>
+                        </a:solidFill>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>workstruct</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="241" name="矩形 240"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5754916" y="17255671"/>
+                          <a:ext cx="805541" cy="671286"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:sysClr val="window" lastClr="FFFFFF"/>
+                        </a:solidFill>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>workstruct</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                    <xdr:sp macro="" textlink="">
+                      <xdr:nvSpPr>
+                        <xdr:cNvPr id="242" name="矩形 241"/>
+                        <xdr:cNvSpPr/>
+                      </xdr:nvSpPr>
+                      <xdr:spPr>
+                        <a:xfrm>
+                          <a:off x="5907316" y="17408071"/>
+                          <a:ext cx="805541" cy="671286"/>
+                        </a:xfrm>
+                        <a:prstGeom prst="rect">
+                          <a:avLst/>
+                        </a:prstGeom>
+                        <a:solidFill>
+                          <a:sysClr val="window" lastClr="FFFFFF"/>
+                        </a:solidFill>
+                        <a:ln w="3175">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:ln>
+                      </xdr:spPr>
+                      <xdr:style>
+                        <a:lnRef idx="2">
+                          <a:schemeClr val="accent1">
+                            <a:shade val="50000"/>
+                          </a:schemeClr>
+                        </a:lnRef>
+                        <a:fillRef idx="1">
+                          <a:schemeClr val="accent1"/>
+                        </a:fillRef>
+                        <a:effectRef idx="0">
+                          <a:schemeClr val="accent1"/>
+                        </a:effectRef>
+                        <a:fontRef idx="minor">
+                          <a:schemeClr val="lt1"/>
+                        </a:fontRef>
+                      </xdr:style>
+                      <xdr:txBody>
+                        <a:bodyPr rtlCol="0" anchor="t"/>
+                        <a:lstStyle/>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>workstruct</a:t>
+                          </a:r>
+                        </a:p>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>-func</a:t>
+                          </a:r>
+                        </a:p>
+                        <a:p>
+                          <a:pPr algn="l"/>
+                          <a:r>
+                            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                              <a:solidFill>
+                                <a:sysClr val="windowText" lastClr="000000"/>
+                              </a:solidFill>
+                            </a:rPr>
+                            <a:t>-data</a:t>
+                          </a:r>
+                          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:endParaRPr>
+                        </a:p>
+                      </xdr:txBody>
+                    </xdr:sp>
+                  </xdr:grpSp>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="239" name="矩形 238"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="6103259" y="19354799"/>
+                        <a:ext cx="805541" cy="671286"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF"/>
+                      </a:solidFill>
+                      <a:ln w="3175">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="50000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>workstruct</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-func</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>-data</a:t>
+                        </a:r>
+                        <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+              </xdr:grpSp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="228" name="组 227"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="3565071" y="20392571"/>
+                    <a:ext cx="2539999" cy="1170216"/>
+                    <a:chOff x="3565071" y="20392571"/>
+                    <a:chExt cx="2539999" cy="1170216"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="229" name="矩形 228"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3565071" y="20619359"/>
+                      <a:ext cx="2539999" cy="943428"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>workque_struct</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="230" name="矩形 229"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3626757" y="20880616"/>
+                      <a:ext cx="2251530" cy="264884"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF"/>
+                    </a:solidFill>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>cpu_wq[NR_CPUS] : cpu_workque_struct</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="231" name="文本框 18"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3565071" y="20392571"/>
+                      <a:ext cx="1061357" cy="224954"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:prstDash val="dash"/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                      <a:noAutofit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                        <a:t>X</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+                        <a:t>类型工作队列</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="222" name="直接箭头连接符 17"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="234" idx="3"/>
+                <a:endCxn id="243" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="4639129" y="17692912"/>
+                <a:ext cx="921659" cy="1"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="223" name="直接箭头连接符 17"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="235" idx="3"/>
+                <a:endCxn id="240" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="4646386" y="19305810"/>
+                <a:ext cx="985159" cy="3"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="3175">
+                <a:prstDash val="dash"/>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="217" name="矩形 216"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3833587" y="19481801"/>
+              <a:ext cx="1173842" cy="566056"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>工作线程</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>X/1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="218" name="直接箭头连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="214" idx="1"/>
+              <a:endCxn id="215" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1" flipV="1">
+              <a:off x="4980217" y="18132877"/>
+              <a:ext cx="419098" cy="4536"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="219" name="矩形 218"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5397501" y="19645083"/>
+              <a:ext cx="1026885" cy="228601"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>thread</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="220" name="直接箭头连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="219" idx="1"/>
+              <a:endCxn id="217" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5007429" y="19759384"/>
+              <a:ext cx="390072" cy="5445"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:prstDash val="dash"/>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="矩形 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5381172" y="19528969"/>
+            <a:ext cx="1026885" cy="228601"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>thread</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6006,96 +9911,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6107,151 +10012,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.875" style="1"/>
+    <col min="1" max="16384" width="2.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="22:22">
-      <c r="V18" s="2" t="s">
+    <row r="33" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="22:22">
-      <c r="V33" s="1" t="s">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="2" t="s">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="3:8">
-      <c r="F56" s="2" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F59" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="3:8">
-      <c r="G57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="F59" s="2" t="s">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G61" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
-      <c r="G61" s="2" t="s">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H66" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="3:8">
-      <c r="H62" s="1" t="s">
-        <v>30</v>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H67" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="63" spans="3:8">
-      <c r="H63" s="1" t="s">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H68" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H73" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="7:9">
-      <c r="H65" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="7:9">
-      <c r="H66" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="7:9">
-      <c r="H67" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="7:9">
-      <c r="I68" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9">
-      <c r="I69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="7:9">
-      <c r="I70" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="7:9">
-      <c r="H72" s="1" t="s">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H75" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="7:9">
-      <c r="H74" s="1" t="s">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="7:9">
-      <c r="G77" s="2" t="s">
+    <row r="98" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="11:11">
-      <c r="K98" s="1" t="s">
+    <row r="100" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="11:11">
-      <c r="K99" s="1" t="s">
+    <row r="102" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K104" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="1" t="s">
-        <v>39</v>
+    <row r="105" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K105" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="1" t="s">
+    <row r="107" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="11:11">
-      <c r="K103" s="1" t="s">
-        <v>37</v>
+    <row r="111" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G111" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="104" spans="11:11">
-      <c r="K104" s="1" t="s">
-        <v>42</v>
+    <row r="112" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="K112" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="3" t="s">
-        <v>38</v>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="108" spans="11:11">
-      <c r="K108" s="1" t="s">
-        <v>41</v>
+    <row r="145" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K145" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="N146" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="N147" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="O148" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="O149" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="P150" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="O151" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="O152" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="P153" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="P154" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="N155" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K156" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L157" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L158" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L159" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K160" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K162" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="M163" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="M164" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F167" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="I169" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="J170" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="J171" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="I173" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="J174" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/linux-kernel/interrupt_dirver.xlsx
+++ b/linux-kernel/interrupt_dirver.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="800" windowWidth="34260" windowHeight="18020" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="34260" windowHeight="18020"/>
   </bookViews>
   <sheets>
     <sheet name="interrupt" sheetId="5" r:id="rId1"/>
@@ -1506,6 +1506,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1513,6 +1514,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1576,1068 +1578,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2600325" y="2742262"/>
-          <a:ext cx="2886075" cy="1505887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CPU</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>120651</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>79380</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="组合 267"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2355851" y="1524001"/>
-          <a:ext cx="2193929" cy="1419223"/>
-          <a:chOff x="1842036" y="2713389"/>
-          <a:chExt cx="2819844" cy="1323181"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1842036" y="2725241"/>
-            <a:ext cx="412629" cy="237034"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-              <a:t>IRQ0</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="TextBox 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2714788" y="2725241"/>
-            <a:ext cx="425523" cy="237034"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-              <a:t>IRQ4</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3050049" y="2713389"/>
-            <a:ext cx="361050" cy="237034"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
-              <a:t>...</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="组合 264"/>
-          <xdr:cNvGrpSpPr>
-            <a:grpSpLocks/>
-          </xdr:cNvGrpSpPr>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2250581" y="2733675"/>
-            <a:ext cx="2411299" cy="1302895"/>
-            <a:chOff x="4374656" y="2514600"/>
-            <a:chExt cx="2411299" cy="1302895"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="矩形 230"/>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4810125" y="2514600"/>
-              <a:ext cx="45719" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="34999"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="矩形 232"/>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4572000" y="2514600"/>
-              <a:ext cx="45719" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="34999"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="矩形 235"/>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4448175" y="2514600"/>
-              <a:ext cx="45719" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="34999"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="矩形 10"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4374656" y="2719494"/>
-              <a:ext cx="2411299" cy="296293"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>中断控制器</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="矩形 261"/>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4695825" y="2514600"/>
-              <a:ext cx="45719" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="34999"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="矩形 263"/>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="5575075" y="3019496"/>
-              <a:ext cx="87085" cy="797999"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="34999"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr rtlCol="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="矩形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3263900" y="2834338"/>
-          <a:ext cx="1365250" cy="213661"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>中断请求寄存器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IRR</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>70786</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3267075" y="3143250"/>
-          <a:ext cx="1365250" cy="213661"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>预设中断入口地址</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="819150" y="1276351"/>
-          <a:ext cx="1104900" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>内存</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106831</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1962150" y="3248025"/>
-          <a:ext cx="1905002" cy="2056"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="314325"/>
-          <a:ext cx="1085850" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>硬件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3333750" y="314325"/>
-          <a:ext cx="1085850" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>硬件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>107195</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>20443</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2381763" y="1123436"/>
-          <a:ext cx="620519" cy="30995"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>96783</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>20444</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3076645" y="649163"/>
-          <a:ext cx="620519" cy="979543"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -2696,48 +1636,569 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="组合 29"/>
+        <xdr:cNvPr id="17" name="组 16"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5572125" y="3028950"/>
-          <a:ext cx="2149475" cy="523875"/>
-          <a:chOff x="2381250" y="2895600"/>
-          <a:chExt cx="2411161" cy="714375"/>
+          <a:off x="831850" y="333375"/>
+          <a:ext cx="6889750" cy="4400551"/>
+          <a:chOff x="831850" y="333375"/>
+          <a:chExt cx="6889750" cy="4400551"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="矩形 30"/>
+          <xdr:cNvPr id="2" name="矩形 1"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2392111" y="2895600"/>
-            <a:ext cx="2400300" cy="714375"/>
+            <a:off x="2641600" y="2923237"/>
+            <a:ext cx="2930525" cy="1601137"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
             </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="组合 267"/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2355851" y="1524001"/>
+            <a:ext cx="2193929" cy="1419223"/>
+            <a:chOff x="1842036" y="2713389"/>
+            <a:chExt cx="2819844" cy="1323181"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1842036" y="2725241"/>
+              <a:ext cx="412629" cy="237034"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>IRQ0</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2714788" y="2725241"/>
+              <a:ext cx="425523" cy="237034"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>IRQ4</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3050049" y="2713389"/>
+              <a:ext cx="361050" cy="237034"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+                <a:t>...</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="7" name="组合 264"/>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2250581" y="2733675"/>
+              <a:ext cx="2411299" cy="1302895"/>
+              <a:chOff x="4374656" y="2514600"/>
+              <a:chExt cx="2411299" cy="1302895"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="矩形 230"/>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4810125" y="2514600"/>
+                <a:ext cx="45719" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="34999"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="9" name="矩形 232"/>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4572000" y="2514600"/>
+                <a:ext cx="45719" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="34999"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="矩形 235"/>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4448175" y="2514600"/>
+                <a:ext cx="45719" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="34999"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="矩形 10"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4374656" y="2719494"/>
+                <a:ext cx="2411299" cy="296293"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>中断控制器</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="12" name="矩形 261"/>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="4695825" y="2514600"/>
+                <a:ext cx="45719" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="34999"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="13" name="矩形 263"/>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="5575075" y="3019496"/>
+                <a:ext cx="87085" cy="797999"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="34999"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:extLst>
+                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:miter lim="800000"/>
+                    <a:headEnd/>
+                    <a:tailEnd/>
+                  </a14:hiddenLine>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr rtlCol="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="矩形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3924300" y="3015313"/>
+            <a:ext cx="1387475" cy="232711"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
           </a:solidFill>
           <a:ln w="3175">
             <a:solidFill>
@@ -2769,349 +2230,42 @@
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="900">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>控制总线</a:t>
+              <a:t>中断请求寄存器</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>IRR</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直接连接符 31"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="2981325"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="直接连接符 32"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3038475"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="直接连接符 33"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2400301" y="3095625"/>
-            <a:ext cx="2381249" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="直接连接符 34"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2400300" y="3152775"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="36" name="直接连接符 35"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2381250" y="3352800"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直接连接符 36"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3409950"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直接连接符 37"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3467100"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="直接连接符 38"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3524250"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="组合 39"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5581650" y="3733801"/>
-          <a:ext cx="2139950" cy="504825"/>
-          <a:chOff x="2381250" y="2914650"/>
-          <a:chExt cx="2400300" cy="714375"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="矩形 40"/>
+          <xdr:cNvPr id="15" name="矩形 14"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2381250" y="2914650"/>
-            <a:ext cx="2400300" cy="714375"/>
+            <a:off x="3927475" y="3352800"/>
+            <a:ext cx="1387475" cy="223186"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
           </a:solidFill>
           <a:ln w="3175">
             <a:solidFill>
@@ -3143,33 +2297,228 @@
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="900">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>数据总线</a:t>
+              <a:t>预设中断入口地址</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="矩形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="831850" y="1352551"/>
+            <a:ext cx="1120775" cy="3381375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>内存</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="42" name="直接连接符 41"/>
+          <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="2981325"/>
-            <a:ext cx="2381250" cy="1588"/>
+          <a:xfrm rot="10800000">
+            <a:off x="1990725" y="3457575"/>
+            <a:ext cx="1936752" cy="2056"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:ln w="3175">
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="矩形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2165350" y="333375"/>
+            <a:ext cx="1104900" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>硬件</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="矩形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3384550" y="333375"/>
+            <a:ext cx="1104900" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>硬件</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="2"/>
+            <a:endCxn id="10" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2399226" y="1194873"/>
+            <a:ext cx="668144" cy="30995"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="arrow"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -3189,23 +2538,23 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="直接连接符 42"/>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="21" idx="2"/>
+            <a:endCxn id="12" idx="0"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3038475"/>
-            <a:ext cx="2381250" cy="1588"/>
+          <a:xfrm rot="5400000">
+            <a:off x="3105220" y="712663"/>
+            <a:ext cx="668144" cy="995418"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
           <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="arrow"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -3223,353 +2572,825 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="44" name="直接连接符 43"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="组合 29"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2400300" y="3095625"/>
-            <a:ext cx="2381250" cy="1588"/>
+            <a:off x="5572125" y="3028950"/>
+            <a:ext cx="2149475" cy="523875"/>
+            <a:chOff x="2381250" y="2895600"/>
+            <a:chExt cx="2411161" cy="714375"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="矩形 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2392111" y="2895600"/>
+              <a:ext cx="2400300" cy="714375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>控制总线</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="直接连接符 31"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="2981325"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="直接连接符 32"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3038475"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="直接连接符 33"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400301" y="3095625"/>
+              <a:ext cx="2381249" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="直接连接符 34"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400300" y="3152775"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="直接连接符 35"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2381250" y="3352800"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="直接连接符 36"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3409950"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="直接连接符 37"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3467100"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="39" name="直接连接符 38"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3524250"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="40" name="组合 39"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5581650" y="3733801"/>
+            <a:ext cx="2139950" cy="504825"/>
+            <a:chOff x="2381250" y="2914650"/>
+            <a:chExt cx="2400300" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="矩形 40"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2381250" y="2914650"/>
+              <a:ext cx="2400300" cy="714375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>数据总线</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直接连接符 41"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="2981325"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="直接连接符 42"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3038475"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="44" name="直接连接符 43"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400300" y="3095625"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="45" name="直接连接符 44"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2400300" y="3152775"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="46" name="直接连接符 45"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2381250" y="3352800"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="直接连接符 46"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3409950"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="直接连接符 47"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3467100"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="49" name="直接连接符 48"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2390775" y="3524250"/>
+              <a:ext cx="2381250" cy="1588"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="矩形 263"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6210299" y="1914525"/>
+            <a:ext cx="85725" cy="2238375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="34999"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="45" name="直接连接符 44"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2400300" y="3152775"/>
-            <a:ext cx="2381250" cy="1588"/>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="矩形 263"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5390357" y="1061245"/>
+            <a:ext cx="80959" cy="1720850"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="34999"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="46" name="直接连接符 45"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2381250" y="3352800"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="47" name="直接连接符 46"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3409950"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="直接连接符 47"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3467100"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="49" name="直接连接符 48"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2390775" y="3524250"/>
-            <a:ext cx="2381250" cy="1588"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="矩形 263"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6115049" y="1800225"/>
-          <a:ext cx="85725" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="34999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="矩形 263"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5307807" y="959645"/>
-          <a:ext cx="80959" cy="1695450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="34999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9914,7 +9735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -10015,7 +9836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
